--- a/elsa/sprint2/doc/Scrum_ELSA_Sprint_2.xlsx
+++ b/elsa/sprint2/doc/Scrum_ELSA_Sprint_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsham\OneDrive\Documents\GitHub\cse1325\elsa\sprint2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{E019759C-5E20-403B-A6BD-B377397325EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B538935E-AE2D-465D-8737-50E6DDF2E91F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="2925" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="4185" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Sprint 04 Backlog" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="149">
   <si>
     <t>Product Name:</t>
   </si>
@@ -476,6 +475,15 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Finished in Sprint 1</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 2</t>
+  </si>
+  <si>
+    <t>In Work</t>
   </si>
 </sst>
 </file>
@@ -768,18 +776,6 @@
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -901,6 +897,18 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1141,19 +1149,19 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3104,111 +3112,111 @@
   </sheetPr>
   <dimension ref="A1:AMK95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13" style="5" customWidth="1"/>
-    <col min="9" max="9" width="45.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="37" style="5" customWidth="1"/>
-    <col min="11" max="11" width="62.28515625" style="5" customWidth="1"/>
-    <col min="12" max="1025" width="11.5703125" style="5"/>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37" style="1" customWidth="1"/>
+    <col min="11" max="11" width="62.28515625" style="1" customWidth="1"/>
+    <col min="12" max="1025" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="9" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -3218,9 +3226,9 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -3230,9 +3238,9 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -3242,9 +3250,9 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -3254,9 +3262,9 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -3266,465 +3274,481 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>0</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="2">
         <f>COUNT(B24:B127)</f>
         <v>22</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="15" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>1</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="2">
         <f>B12-C13</f>
-        <v>22</v>
-      </c>
-      <c r="C13" s="12">
+        <v>18</v>
+      </c>
+      <c r="C13" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 1")</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="15">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="11">
         <v>1</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
         <v>2</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="2">
         <f>B13-C14</f>
-        <v>22</v>
-      </c>
-      <c r="C14" s="12">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 2")</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="15">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8">
+        <v>3</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="11">
         <v>2</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
         <v>3</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="2">
         <f>B14-C15</f>
-        <v>22</v>
-      </c>
-      <c r="C15" s="12">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 3")</f>
         <v>0</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="8">
         <v>22</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="15">
+      <c r="E15" s="9"/>
+      <c r="F15" s="11">
         <v>3</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
         <v>4</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="2">
         <f>B15-C16</f>
-        <v>22</v>
-      </c>
-      <c r="C16" s="12">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
         <v>0</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="8">
         <v>22</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
+      <c r="E16" s="9"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
         <v>5</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="2">
         <f>B16-C17</f>
-        <v>22</v>
-      </c>
-      <c r="C17" s="12">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8">
         <f>COUNTIF(G$24:G$101,"Finished in Sprint 4")</f>
         <v>0</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="8">
         <v>22</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="16" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="1" t="s">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="17">
         <v>1</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="17">
         <v>1</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17">
         <v>3</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="18">
         <v>1</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23" t="s">
+      <c r="G24" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="I24" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="24"/>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="17">
         <v>2</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="17">
         <v>1</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17">
         <v>8</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="18">
         <v>1</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23" t="s">
+      <c r="G25" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K25" s="24"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="17">
         <v>3</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="17">
         <v>1</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21">
+      <c r="D26" s="17"/>
+      <c r="E26" s="17">
         <v>8</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="18">
         <v>1</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23" t="s">
+      <c r="G26" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="24"/>
+      <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="17">
         <v>4</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="17">
         <v>1</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21">
+      <c r="D27" s="17"/>
+      <c r="E27" s="17">
         <v>13</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="18">
         <v>1</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23" t="s">
+      <c r="G27" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="24"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="22">
         <v>5</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="22">
         <v>2</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26">
+      <c r="D28" s="22"/>
+      <c r="E28" s="22">
         <v>21</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="18">
         <v>2</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23" t="s">
+      <c r="G28" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="24" t="s">
+      <c r="K28" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="22">
         <v>6</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="22">
         <v>2</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22">
         <v>5</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23" t="s">
+      <c r="F29" s="18"/>
+      <c r="G29" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K29" s="24" t="s">
+      <c r="K29" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="22">
         <v>7</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="22">
         <v>2</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22">
         <v>8</v>
       </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23" t="s">
+      <c r="F30" s="18">
+        <v>2</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="19" t="s">
         <v>31</v>
       </c>
       <c r="I30" t="s">
@@ -3733,1082 +3757,1096 @@
       <c r="J30" t="s">
         <v>54</v>
       </c>
-      <c r="K30" s="24" t="s">
+      <c r="K30" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+    <row r="31" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="22">
         <v>8</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="22">
         <v>2</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26">
+      <c r="D31" s="22"/>
+      <c r="E31" s="22">
         <v>1</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23" t="s">
+      <c r="F31" s="18">
+        <v>2</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="K31" s="24"/>
-    </row>
-    <row r="32" spans="1:11" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="1:11" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="17">
         <v>9</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="25">
         <v>3</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25">
         <v>13</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="23" t="s">
+      <c r="F32" s="18">
+        <v>3</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="K32" s="24" t="s">
+      <c r="K32" s="20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
+    <row r="33" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="17">
         <v>10</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="25">
         <v>3</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25">
         <v>5</v>
       </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="23" t="s">
+      <c r="F33" s="18">
+        <v>3</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I33" s="24" t="s">
+      <c r="I33" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="J33" s="24" t="s">
+      <c r="J33" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="K33" s="24" t="s">
+      <c r="K33" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28" t="s">
+    <row r="34" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="17">
         <v>11</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="25">
         <v>3</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25">
         <v>8</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="23" t="s">
+      <c r="F34" s="18">
+        <v>3</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="I34" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="J34" s="24" t="s">
+      <c r="J34" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="K34" s="24" t="s">
+      <c r="K34" s="20" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="22">
         <v>12</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="22">
         <v>4</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22">
         <v>21</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="23" t="s">
+      <c r="F35" s="18">
+        <v>4</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="J35" s="24" t="s">
+      <c r="J35" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="K35" s="24"/>
-    </row>
-    <row r="36" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="K35" s="20"/>
+    </row>
+    <row r="36" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="22">
         <v>13</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="22">
         <v>4</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26">
+      <c r="D36" s="22"/>
+      <c r="E36" s="22">
         <v>8</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="23" t="s">
+      <c r="F36" s="18">
+        <v>4</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="K36" s="24"/>
-    </row>
-    <row r="37" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-    </row>
-    <row r="38" spans="1:11" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="30" t="s">
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+    </row>
+    <row r="38" spans="1:11" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="17">
         <v>14</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21">
+      <c r="C40" s="17"/>
+      <c r="D40" s="17">
         <v>25</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="17">
         <v>13</v>
       </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="23" t="s">
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I40" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J40" s="24" t="s">
+      <c r="J40" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="K40" s="24" t="s">
+      <c r="K40" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
+    <row r="41" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="17">
         <v>15</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21">
+      <c r="C41" s="17"/>
+      <c r="D41" s="17">
         <v>10</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="17">
         <v>5</v>
       </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="23" t="s">
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="I41" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="J41" s="24" t="s">
+      <c r="J41" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="K41" s="24"/>
-    </row>
-    <row r="42" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="29">
+      <c r="B42" s="25">
         <v>16</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21">
+      <c r="C42" s="17"/>
+      <c r="D42" s="17">
         <v>15</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="17">
         <v>8</v>
       </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="23" t="s">
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="24" t="s">
+      <c r="I42" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="J42" s="24" t="s">
+      <c r="J42" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="K42" s="24"/>
-    </row>
-    <row r="43" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="s">
+      <c r="K42" s="20"/>
+    </row>
+    <row r="43" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="17">
         <v>17</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21">
+      <c r="C43" s="17"/>
+      <c r="D43" s="17">
         <v>40</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="17">
         <v>21</v>
       </c>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="23" t="s">
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I43" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="J43" s="24" t="s">
+      <c r="J43" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="K43" s="24"/>
-    </row>
-    <row r="44" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
+      <c r="K43" s="20"/>
+    </row>
+    <row r="44" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="17">
         <v>18</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21">
+      <c r="C44" s="17"/>
+      <c r="D44" s="17">
         <v>25</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="17">
         <v>13</v>
       </c>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="23" t="s">
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="J44" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="K44" s="24"/>
-    </row>
-    <row r="45" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
+      <c r="K44" s="20"/>
+    </row>
+    <row r="45" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="17">
         <v>19</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21">
+      <c r="C45" s="17"/>
+      <c r="D45" s="17">
         <v>10</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="17">
         <v>5</v>
       </c>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="23" t="s">
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="I45" s="24" t="s">
+      <c r="I45" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="J45" s="24" t="s">
+      <c r="J45" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="K45" s="24" t="s">
+      <c r="K45" s="20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="17">
         <v>20</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21">
+      <c r="C46" s="17"/>
+      <c r="D46" s="17">
         <v>10</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="17">
         <v>5</v>
       </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="23" t="s">
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="I46" s="24" t="s">
+      <c r="I46" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="J46" s="24" t="s">
+      <c r="J46" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="K46" s="24" t="s">
+      <c r="K46" s="20" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="17">
         <v>21</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21">
+      <c r="C47" s="17"/>
+      <c r="D47" s="17">
         <v>25</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="17">
         <v>13</v>
       </c>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="23" t="s">
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I47" s="24" t="s">
+      <c r="I47" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="J47" s="24" t="s">
+      <c r="J47" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="K47" s="24" t="s">
+      <c r="K47" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="21">
+      <c r="B48" s="17">
         <v>22</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21">
+      <c r="C48" s="17"/>
+      <c r="D48" s="17">
         <v>15</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="17">
         <v>8</v>
       </c>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="23" t="s">
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I48" s="24" t="s">
+      <c r="I48" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J48" s="24" t="s">
+      <c r="J48" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="K48" s="24" t="s">
+      <c r="K48" s="20" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="31"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="31"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="31"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="31"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="31"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="31"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="31"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="31"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="31"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="31"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="31"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="32"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="28"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="31"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="31"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="31"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="31"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="31"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="31"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="32"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="31"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="31"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="31"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="32"/>
+      <c r="A69" s="27"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="31"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="31"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="32"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="31"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="32"/>
+      <c r="A72" s="27"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="31"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="31"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="32"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="31"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="32"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="31"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="32"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="31"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="32"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="31"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="32"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="31"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="32"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="31"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="32"/>
+      <c r="A80" s="27"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="31"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="32"/>
+      <c r="A81" s="27"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="28"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="31"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="32"/>
-      <c r="K82" s="32"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="31"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="32"/>
-      <c r="K83" s="32"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="31"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="32"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="31"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="32"/>
-      <c r="K85" s="32"/>
+      <c r="A85" s="27"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="31"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="32"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="31"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="32"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="31"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="32"/>
-      <c r="K88" s="32"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="28"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="31"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="32"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="28"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="31"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="32"/>
-      <c r="K90" s="32"/>
+      <c r="A90" s="27"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="28"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="31"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="32"/>
+      <c r="A91" s="27"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="31"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="32"/>
-      <c r="K92" s="32"/>
+      <c r="A92" s="27"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="28"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="31"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="32"/>
+      <c r="A93" s="27"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="28"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="31"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="32"/>
-      <c r="K94" s="32"/>
+      <c r="A94" s="27"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="28"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="31"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="32"/>
-      <c r="K95" s="32"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4896,1175 +4934,1175 @@
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="51.85546875" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" style="33" customWidth="1"/>
+    <col min="6" max="6" width="51.85546875" style="29" customWidth="1"/>
     <col min="7" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:1024" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34">
+      <c r="B1" s="30">
         <v>1</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
       <c r="E1"/>
-      <c r="F1" s="36"/>
+      <c r="F1" s="32"/>
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="34">
         <v>43893</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="36"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="32"/>
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="34">
         <f>B2+21</f>
         <v>43914</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="32"/>
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="36"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="32"/>
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="36"/>
+    <row r="5" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="32"/>
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="41" t="s">
+    <row r="6" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="36"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="32"/>
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="30">
         <f>COUNTA(D17:D995)</f>
         <v>16</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="36"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="32"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="30">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>16</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
         <v>0</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="36"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="32"/>
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="30">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
         <v>0</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="36"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="32"/>
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="30">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
         <v>0</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="36"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="32"/>
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="30">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
         <v>0</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="36"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="32"/>
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+    <row r="12" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="30">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
         <v>0</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="36"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="32"/>
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+    <row r="13" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="30">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
         <v>0</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="36"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="32"/>
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="30">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
         <v>0</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="36"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="32"/>
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="36"/>
+    <row r="15" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="32"/>
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="39" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="45" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47" t="s">
+      <c r="E17" s="42"/>
+      <c r="F17" s="43" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="45" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47" t="s">
+      <c r="E18" s="42"/>
+      <c r="F18" s="43" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="45" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47" t="s">
+      <c r="E19" s="42"/>
+      <c r="F19" s="43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="45" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="45" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="45" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="45" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="1">
         <v>8</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="45" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="1">
         <v>9</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="45" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="1">
         <v>10</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="45" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="1">
         <v>11</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="45" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="1">
         <v>12</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="45" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="1">
         <v>13</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="45" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="1">
         <v>14</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="45" t="s">
+      <c r="C30" s="1"/>
+      <c r="D30" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="1">
         <v>15</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="45" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="47"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="1">
         <v>16</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="45" t="s">
+      <c r="C32" s="1"/>
+      <c r="D32" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="1">
         <v>17</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="1">
         <v>18</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="47"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="1">
         <v>19</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="1">
         <v>20</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="47"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="1">
         <v>21</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="47"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="1">
         <v>22</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="47"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="1">
         <v>23</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="47"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="43"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="1">
         <v>24</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="47"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="43"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="1">
         <v>25</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="43"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="1">
         <v>26</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="47"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="43"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+      <c r="A43" s="1">
         <v>27</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="47"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="43"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="A44" s="1">
         <v>28</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="47"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="43"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="1">
         <v>29</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="47"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="43"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="A46" s="1">
         <v>30</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="47"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="43"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+      <c r="A47" s="1">
         <v>31</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="47"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="43"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="1">
         <v>32</v>
       </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="47"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="43"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+      <c r="A49" s="1">
         <v>33</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="47"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="43"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="1">
         <v>34</v>
       </c>
-      <c r="B50" s="44"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="47"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="43"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="1">
         <v>35</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="47"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="43"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="1">
         <v>36</v>
       </c>
-      <c r="B52" s="44"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="47"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="43"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+      <c r="A53" s="1">
         <v>37</v>
       </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="47"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="43"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="1">
         <v>38</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="47"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+      <c r="A55" s="1">
         <v>39</v>
       </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="47"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="43"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+      <c r="A56" s="1">
         <v>40</v>
       </c>
-      <c r="B56" s="44"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="47"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="43"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+      <c r="A57" s="1">
         <v>41</v>
       </c>
-      <c r="B57" s="44"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="47"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="43"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+      <c r="A58" s="1">
         <v>42</v>
       </c>
-      <c r="B58" s="44"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="47"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="43"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+      <c r="A59" s="1">
         <v>43</v>
       </c>
-      <c r="B59" s="44"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="47"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="43"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+      <c r="A60" s="1">
         <v>44</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="47"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="43"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+      <c r="A61" s="1">
         <v>45</v>
       </c>
-      <c r="B61" s="44"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="47"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="43"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+      <c r="A62" s="1">
         <v>46</v>
       </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="47"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="43"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+      <c r="A63" s="1">
         <v>47</v>
       </c>
-      <c r="B63" s="44"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="47"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="43"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
+      <c r="A64" s="1">
         <v>48</v>
       </c>
-      <c r="B64" s="44"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="47"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="43"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
+      <c r="A65" s="1">
         <v>49</v>
       </c>
-      <c r="B65" s="44"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="47"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="43"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
+      <c r="A66" s="1">
         <v>50</v>
       </c>
-      <c r="B66" s="44"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="47"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="43"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+      <c r="A67" s="1">
         <v>51</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="47"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="43"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+      <c r="A68" s="1">
         <v>52</v>
       </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="47"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="43"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="A69" s="1">
         <v>53</v>
       </c>
-      <c r="B69" s="44"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="47"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="43"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="A70" s="1">
         <v>54</v>
       </c>
-      <c r="B70" s="44"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="47"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="43"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="A71" s="1">
         <v>55</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="47"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="43"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
+      <c r="A72" s="1">
         <v>56</v>
       </c>
-      <c r="B72" s="44"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="47"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="43"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
+      <c r="A73" s="1">
         <v>57</v>
       </c>
-      <c r="B73" s="44"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="47"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="43"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
+      <c r="A74" s="1">
         <v>58</v>
       </c>
-      <c r="B74" s="44"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="47"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="43"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
+      <c r="A75" s="1">
         <v>59</v>
       </c>
-      <c r="B75" s="44"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="47"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="43"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
+      <c r="A76" s="1">
         <v>60</v>
       </c>
-      <c r="B76" s="44"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="47"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="43"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
+      <c r="A77" s="1">
         <v>61</v>
       </c>
-      <c r="B77" s="44"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="47"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="43"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
+      <c r="A78" s="1">
         <v>62</v>
       </c>
-      <c r="B78" s="44"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="47"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="43"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
+      <c r="A79" s="1">
         <v>63</v>
       </c>
-      <c r="B79" s="44"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="47"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="43"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
+      <c r="A80" s="1">
         <v>64</v>
       </c>
-      <c r="B80" s="44"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="47"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="43"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
+      <c r="A81" s="1">
         <v>65</v>
       </c>
-      <c r="B81" s="44"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="47"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="43"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
+      <c r="A82" s="1">
         <v>66</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="47"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="43"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
+      <c r="A83" s="1">
         <v>67</v>
       </c>
-      <c r="B83" s="44"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="47"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="43"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
+      <c r="A84" s="1">
         <v>68</v>
       </c>
-      <c r="B84" s="44"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="47"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="43"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
+      <c r="A85" s="1">
         <v>69</v>
       </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="47"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="43"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
+      <c r="A86" s="1">
         <v>70</v>
       </c>
-      <c r="B86" s="44"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="47"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="43"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
+      <c r="A87" s="1">
         <v>71</v>
       </c>
-      <c r="B87" s="44"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="47"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="43"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
+      <c r="A88" s="1">
         <v>72</v>
       </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="46"/>
-      <c r="F88" s="47"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="43"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="5">
+      <c r="A89" s="1">
         <v>73</v>
       </c>
-      <c r="B89" s="44"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="47"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="43"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="5">
+      <c r="A90" s="1">
         <v>74</v>
       </c>
-      <c r="B90" s="44"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="47"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="43"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
+      <c r="A91" s="1">
         <v>75</v>
       </c>
-      <c r="B91" s="44"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="47"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="43"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
+      <c r="A92" s="1">
         <v>76</v>
       </c>
-      <c r="B92" s="44"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="47"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="43"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
+      <c r="A93" s="1">
         <v>77</v>
       </c>
-      <c r="B93" s="44"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="47"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="43"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+      <c r="A94" s="1">
         <v>78</v>
       </c>
-      <c r="B94" s="44"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="46"/>
-      <c r="F94" s="47"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="43"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
+      <c r="A95" s="1">
         <v>79</v>
       </c>
-      <c r="B95" s="44"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="47"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="43"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
+      <c r="A96" s="1">
         <v>80</v>
       </c>
-      <c r="B96" s="44"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="47"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="43"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
+      <c r="A97" s="1">
         <v>81</v>
       </c>
-      <c r="B97" s="44"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="46"/>
-      <c r="F97" s="47"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="43"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
+      <c r="A98" s="1">
         <v>82</v>
       </c>
-      <c r="B98" s="44"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="46"/>
-      <c r="F98" s="47"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="43"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
+      <c r="A99" s="1">
         <v>83</v>
       </c>
-      <c r="B99" s="44"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="46"/>
-      <c r="F99" s="47"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="43"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="5">
+      <c r="A100" s="1">
         <v>84</v>
       </c>
-      <c r="B100" s="44"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="46"/>
-      <c r="F100" s="47"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="43"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -6133,1105 +6171,1105 @@
     <col min="7" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:1024" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34">
+      <c r="B1" s="30">
         <f>'Sprint 01 Backlog'!B1+1</f>
         <v>2</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
       <c r="E1"/>
-      <c r="F1" s="34"/>
+      <c r="F1" s="30"/>
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="34">
         <f>'Sprint 01 Backlog'!B3</f>
         <v>43914</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="34">
         <f>B2+7</f>
         <v>43921</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+    <row r="5" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="41" t="s">
+    <row r="6" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="30">
         <f>COUNTA(D17:D995)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="30">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
         <v>0</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
         <v>0</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
         <v>0</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
         <v>0</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+    <row r="12" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
         <v>0</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+    <row r="13" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
         <v>0</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
         <v>0</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+    <row r="15" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="38" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="48" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="1">
         <v>8</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="1">
         <v>9</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="1">
         <v>10</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="1">
         <v>11</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="1">
         <v>12</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="1">
         <v>13</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="1">
         <v>14</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="1">
         <v>15</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="47"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="1">
         <v>16</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="1">
         <v>17</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="1">
         <v>18</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="47"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="1">
         <v>19</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="1">
         <v>20</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="47"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="1">
         <v>21</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="47"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="1">
         <v>22</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="47"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="1">
         <v>23</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="47"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="43"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="1">
         <v>24</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="47"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="43"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="1">
         <v>25</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="43"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="1">
         <v>26</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="47"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="43"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+      <c r="A43" s="1">
         <v>27</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="47"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="43"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="A44" s="1">
         <v>28</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="47"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="43"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="1">
         <v>29</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="47"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="43"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="A46" s="1">
         <v>30</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="47"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="43"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+      <c r="A47" s="1">
         <v>31</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="47"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="43"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="1">
         <v>32</v>
       </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="47"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="43"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+      <c r="A49" s="1">
         <v>33</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="47"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="43"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="1">
         <v>34</v>
       </c>
-      <c r="B50" s="44"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="47"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="43"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="1">
         <v>35</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="47"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="43"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="1">
         <v>36</v>
       </c>
-      <c r="B52" s="44"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="47"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="43"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+      <c r="A53" s="1">
         <v>37</v>
       </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="47"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="43"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="1">
         <v>38</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="47"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+      <c r="A55" s="1">
         <v>39</v>
       </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="47"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="43"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+      <c r="A56" s="1">
         <v>40</v>
       </c>
-      <c r="B56" s="44"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="47"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="43"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+      <c r="A57" s="1">
         <v>41</v>
       </c>
-      <c r="B57" s="44"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="47"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="43"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+      <c r="A58" s="1">
         <v>42</v>
       </c>
-      <c r="B58" s="44"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="47"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="43"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+      <c r="A59" s="1">
         <v>43</v>
       </c>
-      <c r="B59" s="44"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="47"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="43"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+      <c r="A60" s="1">
         <v>44</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="47"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="43"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+      <c r="A61" s="1">
         <v>45</v>
       </c>
-      <c r="B61" s="44"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="47"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="43"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+      <c r="A62" s="1">
         <v>46</v>
       </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="47"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="43"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+      <c r="A63" s="1">
         <v>47</v>
       </c>
-      <c r="B63" s="44"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="47"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="43"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
+      <c r="A64" s="1">
         <v>48</v>
       </c>
-      <c r="B64" s="44"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="47"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="43"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
+      <c r="A65" s="1">
         <v>49</v>
       </c>
-      <c r="B65" s="44"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="47"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="43"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
+      <c r="A66" s="1">
         <v>50</v>
       </c>
-      <c r="B66" s="44"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="47"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="43"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+      <c r="A67" s="1">
         <v>51</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="47"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="43"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+      <c r="A68" s="1">
         <v>52</v>
       </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="47"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="43"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="A69" s="1">
         <v>53</v>
       </c>
-      <c r="B69" s="44"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="47"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="43"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="A70" s="1">
         <v>54</v>
       </c>
-      <c r="B70" s="44"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="47"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="43"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="A71" s="1">
         <v>55</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="47"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="43"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
+      <c r="A72" s="1">
         <v>56</v>
       </c>
-      <c r="B72" s="44"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="47"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="43"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
+      <c r="A73" s="1">
         <v>57</v>
       </c>
-      <c r="B73" s="44"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="47"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="43"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
+      <c r="A74" s="1">
         <v>58</v>
       </c>
-      <c r="B74" s="44"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="47"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="43"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
+      <c r="A75" s="1">
         <v>59</v>
       </c>
-      <c r="B75" s="44"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="47"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="43"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
+      <c r="A76" s="1">
         <v>60</v>
       </c>
-      <c r="B76" s="44"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="47"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="43"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
+      <c r="A77" s="1">
         <v>61</v>
       </c>
-      <c r="B77" s="44"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="47"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="43"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
+      <c r="A78" s="1">
         <v>62</v>
       </c>
-      <c r="B78" s="44"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="47"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="43"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
+      <c r="A79" s="1">
         <v>63</v>
       </c>
-      <c r="B79" s="44"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="47"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="43"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
+      <c r="A80" s="1">
         <v>64</v>
       </c>
-      <c r="B80" s="44"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="47"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="43"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
+      <c r="A81" s="1">
         <v>65</v>
       </c>
-      <c r="B81" s="44"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="47"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="43"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
+      <c r="A82" s="1">
         <v>66</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="47"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="43"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
+      <c r="A83" s="1">
         <v>67</v>
       </c>
-      <c r="B83" s="44"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="47"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="43"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
+      <c r="A84" s="1">
         <v>68</v>
       </c>
-      <c r="B84" s="44"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="47"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="43"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
+      <c r="A85" s="1">
         <v>69</v>
       </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="47"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="43"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
+      <c r="A86" s="1">
         <v>70</v>
       </c>
-      <c r="B86" s="44"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="47"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="43"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
+      <c r="A87" s="1">
         <v>71</v>
       </c>
-      <c r="B87" s="44"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="47"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="43"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
+      <c r="A88" s="1">
         <v>72</v>
       </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="46"/>
-      <c r="F88" s="47"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="43"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="5">
+      <c r="A89" s="1">
         <v>73</v>
       </c>
-      <c r="B89" s="44"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="47"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="43"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="5">
+      <c r="A90" s="1">
         <v>74</v>
       </c>
-      <c r="B90" s="44"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="47"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="43"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
+      <c r="A91" s="1">
         <v>75</v>
       </c>
-      <c r="B91" s="44"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="47"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="43"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
+      <c r="A92" s="1">
         <v>76</v>
       </c>
-      <c r="B92" s="44"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="47"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="43"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
+      <c r="A93" s="1">
         <v>77</v>
       </c>
-      <c r="B93" s="44"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="47"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="43"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+      <c r="A94" s="1">
         <v>78</v>
       </c>
-      <c r="B94" s="44"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="46"/>
-      <c r="F94" s="47"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="43"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
+      <c r="A95" s="1">
         <v>79</v>
       </c>
-      <c r="B95" s="44"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="47"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="43"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
+      <c r="A96" s="1">
         <v>80</v>
       </c>
-      <c r="B96" s="44"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="47"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="43"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
+      <c r="A97" s="1">
         <v>81</v>
       </c>
-      <c r="B97" s="44"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="46"/>
-      <c r="F97" s="47"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="43"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
+      <c r="A98" s="1">
         <v>82</v>
       </c>
-      <c r="B98" s="44"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="46"/>
-      <c r="F98" s="47"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="43"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
+      <c r="A99" s="1">
         <v>83</v>
       </c>
-      <c r="B99" s="44"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="46"/>
-      <c r="F99" s="47"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="43"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="5">
+      <c r="A100" s="1">
         <v>84</v>
       </c>
-      <c r="B100" s="44"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="46"/>
-      <c r="F100" s="47"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="43"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -7300,1105 +7338,1105 @@
     <col min="7" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:1024" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34">
+      <c r="B1" s="30">
         <f>'Sprint 02 Backlog'!B1+1</f>
         <v>3</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
       <c r="E1"/>
-      <c r="F1" s="34"/>
+      <c r="F1" s="30"/>
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="34">
         <f>'Sprint 02 Backlog'!B2+7</f>
         <v>43921</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="34">
         <f>B2+7</f>
         <v>43928</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+    <row r="5" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="41" t="s">
+    <row r="6" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="30">
         <f>COUNTA(D17:D995)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="30">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
         <v>0</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
         <v>0</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
         <v>0</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
         <v>0</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+    <row r="12" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
         <v>0</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+    <row r="13" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
         <v>0</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
         <v>0</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+    <row r="15" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="38" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="48" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="1">
         <v>8</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="1">
         <v>9</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="1">
         <v>10</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="1">
         <v>11</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="1">
         <v>12</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="1">
         <v>13</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="1">
         <v>14</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="1">
         <v>15</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="47"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="1">
         <v>16</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="1">
         <v>17</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="1">
         <v>18</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="47"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="1">
         <v>19</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="1">
         <v>20</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="47"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="1">
         <v>21</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="47"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="1">
         <v>22</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="47"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="1">
         <v>23</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="47"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="43"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="1">
         <v>24</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="47"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="43"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="1">
         <v>25</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="43"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="1">
         <v>26</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="47"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="43"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+      <c r="A43" s="1">
         <v>27</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="47"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="43"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="A44" s="1">
         <v>28</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="47"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="43"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="1">
         <v>29</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="47"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="43"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="A46" s="1">
         <v>30</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="47"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="43"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+      <c r="A47" s="1">
         <v>31</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="47"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="43"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="1">
         <v>32</v>
       </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="47"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="43"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+      <c r="A49" s="1">
         <v>33</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="47"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="43"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="1">
         <v>34</v>
       </c>
-      <c r="B50" s="44"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="47"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="43"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="1">
         <v>35</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="47"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="43"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="1">
         <v>36</v>
       </c>
-      <c r="B52" s="44"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="47"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="43"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+      <c r="A53" s="1">
         <v>37</v>
       </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="47"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="43"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="1">
         <v>38</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="47"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+      <c r="A55" s="1">
         <v>39</v>
       </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="47"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="43"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+      <c r="A56" s="1">
         <v>40</v>
       </c>
-      <c r="B56" s="44"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="47"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="43"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+      <c r="A57" s="1">
         <v>41</v>
       </c>
-      <c r="B57" s="44"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="47"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="43"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+      <c r="A58" s="1">
         <v>42</v>
       </c>
-      <c r="B58" s="44"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="47"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="43"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+      <c r="A59" s="1">
         <v>43</v>
       </c>
-      <c r="B59" s="44"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="47"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="43"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+      <c r="A60" s="1">
         <v>44</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="47"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="43"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+      <c r="A61" s="1">
         <v>45</v>
       </c>
-      <c r="B61" s="44"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="47"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="43"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+      <c r="A62" s="1">
         <v>46</v>
       </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="47"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="43"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+      <c r="A63" s="1">
         <v>47</v>
       </c>
-      <c r="B63" s="44"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="47"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="43"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
+      <c r="A64" s="1">
         <v>48</v>
       </c>
-      <c r="B64" s="44"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="47"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="43"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
+      <c r="A65" s="1">
         <v>49</v>
       </c>
-      <c r="B65" s="44"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="47"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="43"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
+      <c r="A66" s="1">
         <v>50</v>
       </c>
-      <c r="B66" s="44"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="47"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="43"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+      <c r="A67" s="1">
         <v>51</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="47"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="43"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+      <c r="A68" s="1">
         <v>52</v>
       </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="47"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="43"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="A69" s="1">
         <v>53</v>
       </c>
-      <c r="B69" s="44"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="47"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="43"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="A70" s="1">
         <v>54</v>
       </c>
-      <c r="B70" s="44"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="47"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="43"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="A71" s="1">
         <v>55</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="47"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="43"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
+      <c r="A72" s="1">
         <v>56</v>
       </c>
-      <c r="B72" s="44"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="47"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="43"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
+      <c r="A73" s="1">
         <v>57</v>
       </c>
-      <c r="B73" s="44"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="47"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="43"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
+      <c r="A74" s="1">
         <v>58</v>
       </c>
-      <c r="B74" s="44"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="47"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="43"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
+      <c r="A75" s="1">
         <v>59</v>
       </c>
-      <c r="B75" s="44"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="47"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="43"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
+      <c r="A76" s="1">
         <v>60</v>
       </c>
-      <c r="B76" s="44"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="47"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="43"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
+      <c r="A77" s="1">
         <v>61</v>
       </c>
-      <c r="B77" s="44"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="47"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="43"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
+      <c r="A78" s="1">
         <v>62</v>
       </c>
-      <c r="B78" s="44"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="47"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="43"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
+      <c r="A79" s="1">
         <v>63</v>
       </c>
-      <c r="B79" s="44"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="47"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="43"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
+      <c r="A80" s="1">
         <v>64</v>
       </c>
-      <c r="B80" s="44"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="47"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="43"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
+      <c r="A81" s="1">
         <v>65</v>
       </c>
-      <c r="B81" s="44"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="47"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="43"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
+      <c r="A82" s="1">
         <v>66</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="47"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="43"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
+      <c r="A83" s="1">
         <v>67</v>
       </c>
-      <c r="B83" s="44"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="47"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="43"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
+      <c r="A84" s="1">
         <v>68</v>
       </c>
-      <c r="B84" s="44"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="47"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="43"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
+      <c r="A85" s="1">
         <v>69</v>
       </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="47"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="43"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
+      <c r="A86" s="1">
         <v>70</v>
       </c>
-      <c r="B86" s="44"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="47"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="43"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
+      <c r="A87" s="1">
         <v>71</v>
       </c>
-      <c r="B87" s="44"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="47"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="43"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
+      <c r="A88" s="1">
         <v>72</v>
       </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="46"/>
-      <c r="F88" s="47"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="43"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="5">
+      <c r="A89" s="1">
         <v>73</v>
       </c>
-      <c r="B89" s="44"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="47"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="43"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="5">
+      <c r="A90" s="1">
         <v>74</v>
       </c>
-      <c r="B90" s="44"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="47"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="43"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
+      <c r="A91" s="1">
         <v>75</v>
       </c>
-      <c r="B91" s="44"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="47"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="43"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
+      <c r="A92" s="1">
         <v>76</v>
       </c>
-      <c r="B92" s="44"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="47"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="43"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
+      <c r="A93" s="1">
         <v>77</v>
       </c>
-      <c r="B93" s="44"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="47"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="43"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+      <c r="A94" s="1">
         <v>78</v>
       </c>
-      <c r="B94" s="44"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="46"/>
-      <c r="F94" s="47"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="43"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
+      <c r="A95" s="1">
         <v>79</v>
       </c>
-      <c r="B95" s="44"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="47"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="43"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
+      <c r="A96" s="1">
         <v>80</v>
       </c>
-      <c r="B96" s="44"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="47"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="43"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
+      <c r="A97" s="1">
         <v>81</v>
       </c>
-      <c r="B97" s="44"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="46"/>
-      <c r="F97" s="47"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="43"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
+      <c r="A98" s="1">
         <v>82</v>
       </c>
-      <c r="B98" s="44"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="46"/>
-      <c r="F98" s="47"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="43"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
+      <c r="A99" s="1">
         <v>83</v>
       </c>
-      <c r="B99" s="44"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="46"/>
-      <c r="F99" s="47"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="43"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="5">
+      <c r="A100" s="1">
         <v>84</v>
       </c>
-      <c r="B100" s="44"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="46"/>
-      <c r="F100" s="47"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="43"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -8467,1107 +8505,1107 @@
     <col min="7" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:1024" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34">
+      <c r="B1" s="30">
         <f>'Sprint 03 Backlog'!B1+1</f>
         <v>4</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
       <c r="E1"/>
-      <c r="F1" s="34"/>
+      <c r="F1" s="30"/>
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="34">
         <f>'Sprint 03 Backlog'!B2+14</f>
         <v>43935</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="34">
         <f>B2+14</f>
         <v>43949</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+    <row r="5" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="41" t="s">
+    <row r="6" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="30">
         <f>COUNTA(D17:D995)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="30">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
         <v>0</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
         <v>0</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
         <v>0</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
         <v>0</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+    <row r="12" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
         <v>0</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+    <row r="13" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
         <v>0</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="30">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
         <v>0</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+    <row r="15" spans="1:1024" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="38" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="48" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47" t="s">
+      <c r="E17" s="42"/>
+      <c r="F17" s="43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="1">
         <v>8</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="1">
         <v>9</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="1">
         <v>10</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="1">
         <v>11</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="1">
         <v>12</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="1">
         <v>13</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="1">
         <v>14</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="1">
         <v>15</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="47"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="1">
         <v>16</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="1">
         <v>17</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="1">
         <v>18</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="47"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="1">
         <v>19</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="1">
         <v>20</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="47"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="1">
         <v>21</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="47"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="1">
         <v>22</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="47"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="1">
         <v>23</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="47"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="43"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="1">
         <v>24</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="47"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="43"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="1">
         <v>25</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="43"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="1">
         <v>26</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="47"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="43"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+      <c r="A43" s="1">
         <v>27</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="47"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="43"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="A44" s="1">
         <v>28</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="47"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="43"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="1">
         <v>29</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="47"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="43"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="A46" s="1">
         <v>30</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="47"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="43"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+      <c r="A47" s="1">
         <v>31</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="47"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="43"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="1">
         <v>32</v>
       </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="47"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="43"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+      <c r="A49" s="1">
         <v>33</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="47"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="43"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="1">
         <v>34</v>
       </c>
-      <c r="B50" s="44"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="47"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="43"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="1">
         <v>35</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="47"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="43"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="1">
         <v>36</v>
       </c>
-      <c r="B52" s="44"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="47"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="43"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+      <c r="A53" s="1">
         <v>37</v>
       </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="47"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="43"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="1">
         <v>38</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="47"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+      <c r="A55" s="1">
         <v>39</v>
       </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="47"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="43"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+      <c r="A56" s="1">
         <v>40</v>
       </c>
-      <c r="B56" s="44"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="47"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="43"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+      <c r="A57" s="1">
         <v>41</v>
       </c>
-      <c r="B57" s="44"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="47"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="43"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+      <c r="A58" s="1">
         <v>42</v>
       </c>
-      <c r="B58" s="44"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="47"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="43"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+      <c r="A59" s="1">
         <v>43</v>
       </c>
-      <c r="B59" s="44"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="47"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="43"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+      <c r="A60" s="1">
         <v>44</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="47"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="43"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+      <c r="A61" s="1">
         <v>45</v>
       </c>
-      <c r="B61" s="44"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="47"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="43"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+      <c r="A62" s="1">
         <v>46</v>
       </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="47"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="43"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+      <c r="A63" s="1">
         <v>47</v>
       </c>
-      <c r="B63" s="44"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="47"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="43"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
+      <c r="A64" s="1">
         <v>48</v>
       </c>
-      <c r="B64" s="44"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="47"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="43"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
+      <c r="A65" s="1">
         <v>49</v>
       </c>
-      <c r="B65" s="44"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="47"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="43"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
+      <c r="A66" s="1">
         <v>50</v>
       </c>
-      <c r="B66" s="44"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="47"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="43"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+      <c r="A67" s="1">
         <v>51</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="47"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="43"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+      <c r="A68" s="1">
         <v>52</v>
       </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="47"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="43"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="A69" s="1">
         <v>53</v>
       </c>
-      <c r="B69" s="44"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="47"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="43"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="A70" s="1">
         <v>54</v>
       </c>
-      <c r="B70" s="44"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="47"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="43"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="A71" s="1">
         <v>55</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="47"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="43"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
+      <c r="A72" s="1">
         <v>56</v>
       </c>
-      <c r="B72" s="44"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="47"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="43"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
+      <c r="A73" s="1">
         <v>57</v>
       </c>
-      <c r="B73" s="44"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="47"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="43"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
+      <c r="A74" s="1">
         <v>58</v>
       </c>
-      <c r="B74" s="44"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="47"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="43"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
+      <c r="A75" s="1">
         <v>59</v>
       </c>
-      <c r="B75" s="44"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="47"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="43"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
+      <c r="A76" s="1">
         <v>60</v>
       </c>
-      <c r="B76" s="44"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="47"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="43"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
+      <c r="A77" s="1">
         <v>61</v>
       </c>
-      <c r="B77" s="44"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="47"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="43"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
+      <c r="A78" s="1">
         <v>62</v>
       </c>
-      <c r="B78" s="44"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="47"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="43"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
+      <c r="A79" s="1">
         <v>63</v>
       </c>
-      <c r="B79" s="44"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="47"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="43"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
+      <c r="A80" s="1">
         <v>64</v>
       </c>
-      <c r="B80" s="44"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="47"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="43"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
+      <c r="A81" s="1">
         <v>65</v>
       </c>
-      <c r="B81" s="44"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="47"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="43"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
+      <c r="A82" s="1">
         <v>66</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="47"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="43"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
+      <c r="A83" s="1">
         <v>67</v>
       </c>
-      <c r="B83" s="44"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="47"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="43"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
+      <c r="A84" s="1">
         <v>68</v>
       </c>
-      <c r="B84" s="44"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="47"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="43"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
+      <c r="A85" s="1">
         <v>69</v>
       </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="47"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="43"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
+      <c r="A86" s="1">
         <v>70</v>
       </c>
-      <c r="B86" s="44"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="47"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="43"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
+      <c r="A87" s="1">
         <v>71</v>
       </c>
-      <c r="B87" s="44"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="47"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="43"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
+      <c r="A88" s="1">
         <v>72</v>
       </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="46"/>
-      <c r="F88" s="47"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="43"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="5">
+      <c r="A89" s="1">
         <v>73</v>
       </c>
-      <c r="B89" s="44"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="47"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="43"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="5">
+      <c r="A90" s="1">
         <v>74</v>
       </c>
-      <c r="B90" s="44"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="47"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="43"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
+      <c r="A91" s="1">
         <v>75</v>
       </c>
-      <c r="B91" s="44"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="47"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="43"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
+      <c r="A92" s="1">
         <v>76</v>
       </c>
-      <c r="B92" s="44"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="47"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="43"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
+      <c r="A93" s="1">
         <v>77</v>
       </c>
-      <c r="B93" s="44"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="47"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="43"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+      <c r="A94" s="1">
         <v>78</v>
       </c>
-      <c r="B94" s="44"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="46"/>
-      <c r="F94" s="47"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="43"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
+      <c r="A95" s="1">
         <v>79</v>
       </c>
-      <c r="B95" s="44"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="47"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="43"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
+      <c r="A96" s="1">
         <v>80</v>
       </c>
-      <c r="B96" s="44"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="47"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="43"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
+      <c r="A97" s="1">
         <v>81</v>
       </c>
-      <c r="B97" s="44"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="46"/>
-      <c r="F97" s="47"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="43"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
+      <c r="A98" s="1">
         <v>82</v>
       </c>
-      <c r="B98" s="44"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="46"/>
-      <c r="F98" s="47"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="43"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
+      <c r="A99" s="1">
         <v>83</v>
       </c>
-      <c r="B99" s="44"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="46"/>
-      <c r="F99" s="47"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="43"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="5">
+      <c r="A100" s="1">
         <v>84</v>
       </c>
-      <c r="B100" s="44"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="46"/>
-      <c r="F100" s="47"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="43"/>
     </row>
   </sheetData>
   <dataValidations count="5">
